--- a/biology/Botanique/Lannea_microcarpa/Lannea_microcarpa.xlsx
+++ b/biology/Botanique/Lannea_microcarpa/Lannea_microcarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lannea microcarpa, le Raisinier en français, est un arbre de la famille des Anacardiacées, présent dans les savanes sahélo-soudaniennes et soudaniennes, du Sénégal au Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lannea microcarpa, le Raisinier en français, est un arbre de la famille des Anacardiacées, présent dans les savanes sahélo-soudaniennes et soudaniennes, du Sénégal au Cameroun.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-Lannea microcarpa est un arbre dioïque atteignant 15 mètres de haut, avec un fût plutôt court, faisant jusqu’à 70 cm de diamètre[3].
+Lannea microcarpa est un arbre dioïque atteignant 15 mètres de haut, avec un fût plutôt court, faisant jusqu’à 70 cm de diamètre.
 Bois et écorce
-l'écorce est lisse ou présentant de minces écailles, de couleur grise, légèrement parfumée. La tranche est fibreuse, de couleur rougeâtre et striée de blanc[3].
+l'écorce est lisse ou présentant de minces écailles, de couleur grise, légèrement parfumée. La tranche est fibreuse, de couleur rougeâtre et striée de blanc.
 Feuilles
-les feuilles alternes font jusqu’à 25 cm de long, et présentent sur leur dessus un aspect cireux, fréquemment parsemé de points glanduleux. Le vert des feuilles de l’espèce Lannea microcarpa est plus clair que celui de l’espèce Lannea acida[2].
+les feuilles alternes font jusqu’à 25 cm de long, et présentent sur leur dessus un aspect cireux, fréquemment parsemé de points glanduleux. Le vert des feuilles de l’espèce Lannea microcarpa est plus clair que celui de l’espèce Lannea acida.
 Fleurs et fruits
-les fleurs sont unisexuées et régulières[3]. Apparaissant en fin de saison sèche, elles sont jaunâtres, avec un diamètre de 4 mm, et présentent 4 pétales. Les fruits sont de couleur pourpre foncé à maturité et font environ 1,4 cm de long[2].</t>
+les fleurs sont unisexuées et régulières. Apparaissant en fin de saison sèche, elles sont jaunâtres, avec un diamètre de 4 mm, et présentent 4 pétales. Les fruits sont de couleur pourpre foncé à maturité et font environ 1,4 cm de long.</t>
         </is>
       </c>
     </row>
@@ -548,16 +562,18 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages avérés en pharmacopée
-les fruits s’utilisent pour le traitement du rachitisme et du scorbut[2].
+les fruits s’utilisent pour le traitement du rachitisme et du scorbut.
 Usages alimentaires et culinaires
-les fruits sont comestibles. Ils donnent une boisson sucrée après cuisson[4].
+les fruits sont comestibles. Ils donnent une boisson sucrée après cuisson.
 Usages agricoles, pastoraux et vétérinaires
-les rameaux et les feuilles servent à la consommation du bétail[2].
+les rameaux et les feuilles servent à la consommation du bétail.
 Usages domestiques, artisanaux et industriels
-le bois s'utilise en construction et en menuiserie[2]. L’écorce est utilisée en teinture[3].</t>
+le bois s'utilise en construction et en menuiserie. L’écorce est utilisée en teinture.</t>
         </is>
       </c>
     </row>
